--- a/biology/Médecine/Lamina_propria/Lamina_propria.xlsx
+++ b/biology/Médecine/Lamina_propria/Lamina_propria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lamina propria ou chorion est un tissu conjonctif lâche situé sous les épithéliums qui tapissent notamment les muqueuses digestives, respiratoires ou urogénitales.
 En tant que tissu conjonctif lâche, la lamina propria est constituée en proportions sensiblement équivalentes de cellules (fibroblastes, cellules de l’immunité), de fibres (collagènes) et de substance fondamentale.
@@ -512,7 +524,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La lamina propria exerce trois rôles importants :
 un rôle mécanique, en soutenant l’épithélium et en permettant à ce dernier de glisser sur les structures plus profondes ;
